--- a/Team-Data/2012-13/4-14-2012-13.xlsx
+++ b/Team-Data/2012-13/4-14-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -756,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
@@ -792,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -813,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
@@ -992,16 +1059,16 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>18</v>
       </c>
       <c r="BB3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>47</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.588</v>
+        <v>0.595</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1057,19 +1124,19 @@
         <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P4" t="n">
         <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R4" t="n">
         <v>12.7</v>
@@ -1078,13 +1145,13 @@
         <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
@@ -1093,7 +1160,7 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z4" t="n">
         <v>18.2</v>
@@ -1102,13 +1169,13 @@
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1138,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1159,13 +1226,13 @@
         <v>10</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1329,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>16</v>
@@ -1344,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>0.538</v>
+        <v>0.544</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
         <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M6" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.774</v>
@@ -1439,13 +1506,13 @@
         <v>12.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
@@ -1454,34 +1521,34 @@
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>5.8</v>
       </c>
       <c r="Z6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>19.6</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19.7</v>
       </c>
       <c r="AB6" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
         <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1493,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
@@ -1523,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
@@ -1535,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>12</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -1576,34 +1643,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>84.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N7" t="n">
         <v>0.346</v>
@@ -1612,19 +1679,19 @@
         <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R7" t="n">
         <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T7" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
@@ -1639,22 +1706,22 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1684,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1708,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1717,16 +1784,16 @@
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
         <v>16</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
         <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
         <v>84.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>7.4</v>
@@ -1788,16 +1855,16 @@
         <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P8" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R8" t="n">
         <v>9.4</v>
@@ -1830,13 +1897,13 @@
         <v>18.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1857,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
@@ -1872,7 +1939,7 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="n">
         <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J9" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L9" t="n">
         <v>6.4</v>
@@ -1973,16 +2040,16 @@
         <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P9" t="n">
         <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7</v>
+        <v>0.697</v>
       </c>
       <c r="R9" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S9" t="n">
         <v>31.5</v>
@@ -1991,13 +2058,13 @@
         <v>44.8</v>
       </c>
       <c r="U9" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X9" t="n">
         <v>6.5</v>
@@ -2006,19 +2073,19 @@
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2081,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-4.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2221,10 +2288,10 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2254,7 +2321,7 @@
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2263,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2397,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2424,25 +2491,25 @@
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
         <v>35</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
         <v>19.3</v>
@@ -2531,22 +2598,22 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
         <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y12" t="n">
         <v>6</v>
@@ -2558,46 +2625,46 @@
         <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
       </c>
       <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO12" t="n">
         <v>2</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>4</v>
@@ -2624,19 +2691,19 @@
         <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
         <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
         <v>49</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>0.613</v>
+        <v>0.62</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.436</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>17.7</v>
@@ -2707,7 +2774,7 @@
         <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
         <v>12.9</v>
@@ -2722,7 +2789,7 @@
         <v>20.4</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>7.2</v>
@@ -2740,13 +2807,13 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2767,16 +2834,16 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>7</v>
@@ -2785,7 +2852,7 @@
         <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR13" t="n">
         <v>3</v>
@@ -2800,10 +2867,10 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2818,10 +2885,10 @@
         <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>19</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="n">
         <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.543</v>
+        <v>0.538</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
         <v>8.699999999999999</v>
@@ -3071,25 +3138,25 @@
         <v>27.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X15" t="n">
         <v>5.2</v>
@@ -3098,13 +3165,13 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
         <v>1.1</v>
@@ -3113,25 +3180,25 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3143,7 +3210,7 @@
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3152,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3164,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
@@ -3173,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>2</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
@@ -3358,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3423,28 +3490,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N17" t="n">
         <v>0.395</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U17" t="n">
         <v>22.9</v>
@@ -3456,25 +3523,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y17" t="n">
         <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
         <v>102.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3507,10 +3574,10 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3668,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3707,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
@@ -3850,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
         <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I20" t="n">
         <v>36.1</v>
       </c>
       <c r="J20" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.45</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N20" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O20" t="n">
         <v>15.4</v>
@@ -3984,10 +4051,10 @@
         <v>0.776</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T20" t="n">
         <v>41.4</v>
@@ -4008,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
@@ -4017,7 +4084,7 @@
         <v>94.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4059,7 +4126,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
         <v>11</v>
@@ -4068,13 +4135,13 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
         <v>30</v>
@@ -4083,10 +4150,10 @@
         <v>10</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -4124,43 +4191,43 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.663</v>
+        <v>0.658</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J21" t="n">
         <v>81.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.376</v>
       </c>
       <c r="O21" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q21" t="n">
         <v>0.758</v>
@@ -4172,10 +4239,10 @@
         <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V21" t="n">
         <v>12.1</v>
@@ -4196,13 +4263,13 @@
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4223,13 +4290,13 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21" t="n">
         <v>5</v>
@@ -4238,19 +4305,19 @@
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4265,10 +4332,10 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
@@ -4277,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
         <v>17</v>
@@ -4456,7 +4523,7 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
@@ -4617,10 +4684,10 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>0.413</v>
+        <v>0.405</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4697,25 +4764,25 @@
         <v>6.3</v>
       </c>
       <c r="M24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="P24" t="n">
         <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
         <v>41.4</v>
@@ -4730,49 +4797,49 @@
         <v>7.4</v>
       </c>
       <c r="X24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
@@ -4796,10 +4863,10 @@
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>30</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -4930,25 +4997,25 @@
         <v>-6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5002,7 +5069,7 @@
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" t="n">
-        <v>0.413</v>
+        <v>0.418</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,13 +5125,13 @@
         <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
@@ -5079,16 +5146,16 @@
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
         <v>6.6</v>
@@ -5103,16 +5170,16 @@
         <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5133,7 +5200,7 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5151,10 +5218,10 @@
         <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
         <v>17</v>
@@ -5166,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5181,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>0.35</v>
+        <v>0.354</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,37 +5301,37 @@
         <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>7.4</v>
       </c>
       <c r="M27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
         <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q27" t="n">
         <v>0.771</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S27" t="n">
         <v>29</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.8</v>
@@ -5279,7 +5346,7 @@
         <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
@@ -5291,16 +5358,16 @@
         <v>100.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.8</v>
+        <v>-4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5312,10 +5379,10 @@
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>11</v>
@@ -5330,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5351,10 +5418,10 @@
         <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
         <v>58</v>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.725</v>
+        <v>0.734</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,37 +5483,37 @@
         <v>39.2</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.482</v>
+        <v>0.484</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O28" t="n">
         <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="S28" t="n">
         <v>33.2</v>
       </c>
       <c r="T28" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U28" t="n">
         <v>25.1</v>
@@ -5455,34 +5522,34 @@
         <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
         <v>3</v>
@@ -5521,16 +5588,16 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
         <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5607,10 +5674,10 @@
         <v>6.9</v>
       </c>
       <c r="M29" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O29" t="n">
         <v>17.5</v>
@@ -5625,13 +5692,13 @@
         <v>10.7</v>
       </c>
       <c r="S29" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V29" t="n">
         <v>13.7</v>
@@ -5640,13 +5707,13 @@
         <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA29" t="n">
         <v>20.1</v>
@@ -5655,10 +5722,10 @@
         <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5852,7 +5919,7 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>13</v>
@@ -5870,13 +5937,13 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
         <v>10</v>
       </c>
       <c r="AP30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ30" t="n">
         <v>13</v>
@@ -5891,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV30" t="n">
         <v>19</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>23</v>
@@ -6034,7 +6101,7 @@
         <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
@@ -6046,7 +6113,7 @@
         <v>28</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
@@ -6058,7 +6125,7 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
@@ -6076,10 +6143,10 @@
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>22</v>
@@ -6088,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-14-2012-13</t>
+          <t>2013-04-14</t>
         </is>
       </c>
     </row>
